--- a/Risultati addestramento.xlsx
+++ b/Risultati addestramento.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\trash_classifier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B50823-2C2C-4ECB-8CE3-AD56EDD18E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658534CB-98F8-4F46-A6BA-FED077890AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{DF60B5AD-70C4-48F0-A1D9-4B4C013E2216}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="62">
   <si>
     <t>Modello</t>
   </si>
@@ -199,6 +199,27 @@
   </si>
   <si>
     <t>Run - Precision</t>
+  </si>
+  <si>
+    <t>20250903_122035_custom_cnn</t>
+  </si>
+  <si>
+    <t>custom_cnn</t>
+  </si>
+  <si>
+    <t>20250903_141723_custom_cnn</t>
+  </si>
+  <si>
+    <t>Early stopping attivato</t>
+  </si>
+  <si>
+    <t>20250903_180658_custom_cnn</t>
+  </si>
+  <si>
+    <t>20250903_221446_custom_cnn</t>
+  </si>
+  <si>
+    <t>20250904_110115_custom_cnn</t>
   </si>
 </sst>
 </file>
@@ -606,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{896DF7F0-FC18-41AB-BE71-4B8AB73646C6}">
-  <dimension ref="A1:R53"/>
+  <dimension ref="A1:R74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L58" sqref="L58"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,281 +1080,363 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="F10" s="2">
+        <v>16</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="H10" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="2">
+        <v>3</v>
+      </c>
+      <c r="K10" s="2">
+        <v>10</v>
+      </c>
+      <c r="L10" s="2">
+        <v>20</v>
+      </c>
+      <c r="M10" s="5">
+        <v>9</v>
+      </c>
+      <c r="N10" s="2">
+        <v>99</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="F11" s="2">
+        <v>16</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="H11" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="2">
+        <v>3</v>
+      </c>
+      <c r="K11" s="2">
+        <v>10</v>
+      </c>
+      <c r="L11" s="2">
+        <v>20</v>
+      </c>
+      <c r="M11" s="5">
+        <v>13</v>
+      </c>
+      <c r="N11" s="2">
+        <v>99</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
+      <c r="A12" t="s">
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" t="s">
-        <v>14</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C12" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="F12" s="2">
+        <v>16</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="H12" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="2">
+        <v>3</v>
+      </c>
+      <c r="K12" s="2">
+        <v>10</v>
+      </c>
+      <c r="L12" s="2">
+        <v>20</v>
+      </c>
+      <c r="M12" s="5">
+        <v>20</v>
+      </c>
+      <c r="N12" s="2">
+        <v>99</v>
+      </c>
+      <c r="O12" s="5"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>2.5100000000000001E-2</v>
-      </c>
-      <c r="C13">
-        <v>0.13109999999999999</v>
-      </c>
-      <c r="D13">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="E13" s="7">
-        <v>0.99480000000000002</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0.95940000000000003</v>
-      </c>
-      <c r="G13" s="7">
-        <v>0.98429999999999995</v>
-      </c>
-      <c r="H13" s="7">
-        <f t="shared" ref="H13:H20" si="0">E13-F13</f>
-        <v>3.5399999999999987E-2</v>
-      </c>
-      <c r="I13">
-        <f t="shared" ref="I13:I20" si="1">C13-B13</f>
-        <v>0.106</v>
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="F13" s="2">
+        <v>16</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="H13" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="2">
+        <v>3</v>
+      </c>
+      <c r="K13" s="2">
+        <v>10</v>
+      </c>
+      <c r="L13" s="2">
+        <v>20</v>
+      </c>
+      <c r="M13" s="5">
+        <v>19</v>
+      </c>
+      <c r="N13" s="2">
+        <v>99</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14">
+        <v>1E-3</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="F14" s="2">
+        <v>32</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="2">
+        <v>3</v>
+      </c>
+      <c r="K14" s="2">
+        <v>10</v>
+      </c>
+      <c r="L14" s="2">
+        <v>30</v>
+      </c>
+      <c r="M14" s="5">
+        <v>13</v>
+      </c>
+      <c r="N14" s="2">
+        <v>99</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>2.5100000000000001E-2</v>
+      </c>
+      <c r="C17">
+        <v>0.13109999999999999</v>
+      </c>
+      <c r="D17">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.99480000000000002</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.95940000000000003</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0.98429999999999995</v>
+      </c>
+      <c r="H17" s="7">
+        <f t="shared" ref="H17:H29" si="0">E17-F17</f>
+        <v>3.5399999999999987E-2</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ref="I17:I29" si="1">C17-B17</f>
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>11</v>
       </c>
-      <c r="B14">
+      <c r="B18">
         <v>3.8800000000000001E-2</v>
       </c>
-      <c r="C14">
+      <c r="C18">
         <v>0.11749999999999999</v>
       </c>
-      <c r="D14">
+      <c r="D18">
         <v>6.1100000000000002E-2</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E18" s="7">
         <v>0.9929</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F18" s="7">
         <v>0.96330000000000005</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G18" s="7">
         <v>0.98640000000000005</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H18" s="7">
         <f t="shared" si="0"/>
         <v>2.959999999999996E-2</v>
       </c>
-      <c r="I14">
+      <c r="I18">
         <f t="shared" si="1"/>
         <v>7.8699999999999992E-2</v>
       </c>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B15">
+      <c r="B19">
         <v>6.3200000000000006E-2</v>
       </c>
-      <c r="C15">
+      <c r="C19">
         <v>0.15540000000000001</v>
       </c>
-      <c r="D15">
+      <c r="D19">
         <v>9.4899999999999998E-2</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E19" s="7">
         <v>0.98450000000000004</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F19" s="7">
         <v>0.95369999999999999</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G19" s="7">
         <v>0.97270000000000001</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H19" s="7">
         <f t="shared" si="0"/>
         <v>3.080000000000005E-2</v>
       </c>
-      <c r="I15">
+      <c r="I19">
         <f t="shared" si="1"/>
         <v>9.2200000000000004E-2</v>
-      </c>
-      <c r="N15" s="6"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16">
-        <v>3.6400000000000002E-2</v>
-      </c>
-      <c r="C16">
-        <v>0.1212</v>
-      </c>
-      <c r="D16">
-        <v>6.4699999999999994E-2</v>
-      </c>
-      <c r="E16" s="7">
-        <v>0.99370000000000003</v>
-      </c>
-      <c r="F16" s="7">
-        <v>0.96619999999999995</v>
-      </c>
-      <c r="G16" s="7">
-        <v>0.98409999999999997</v>
-      </c>
-      <c r="H16" s="7">
-        <f t="shared" si="0"/>
-        <v>2.750000000000008E-2</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="1"/>
-        <v>8.48E-2</v>
-      </c>
-      <c r="N16" s="6"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>2.3E-3</v>
-      </c>
-      <c r="C17">
-        <v>0.1244</v>
-      </c>
-      <c r="D17">
-        <v>3.4200000000000001E-2</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1</v>
-      </c>
-      <c r="F17" s="7">
-        <v>0.95720000000000005</v>
-      </c>
-      <c r="G17" s="7">
-        <v>0.99009999999999998</v>
-      </c>
-      <c r="H17" s="7">
-        <f t="shared" si="0"/>
-        <v>4.2799999999999949E-2</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="1"/>
-        <v>0.1221</v>
-      </c>
-      <c r="N17" s="6"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18">
-        <v>6.6E-3</v>
-      </c>
-      <c r="C18">
-        <v>0.15359999999999999</v>
-      </c>
-      <c r="D18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1</v>
-      </c>
-      <c r="F18" s="7">
-        <v>0.95220000000000005</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" s="7">
-        <f t="shared" si="0"/>
-        <v>4.7799999999999954E-2</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="1"/>
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="N18" s="6"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19">
-        <v>8.5000000000000006E-3</v>
-      </c>
-      <c r="C19">
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="D19">
-        <v>2.87E-2</v>
-      </c>
-      <c r="E19" s="7">
-        <v>0.99909999999999999</v>
-      </c>
-      <c r="F19" s="7">
-        <v>0.97819999999999996</v>
-      </c>
-      <c r="G19" s="7">
-        <v>0.99239999999999995</v>
-      </c>
-      <c r="H19" s="7">
-        <f t="shared" si="0"/>
-        <v>2.090000000000003E-2</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="1"/>
-        <v>5.9000000000000004E-2</v>
       </c>
       <c r="N19" s="6"/>
       <c r="O19" s="5"/>
@@ -1342,34 +1445,34 @@
       <c r="R19" s="6"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>22</v>
+      <c r="A20" t="s">
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>7.9000000000000008E-3</v>
+        <v>3.6400000000000002E-2</v>
       </c>
       <c r="C20">
-        <v>0.12989999999999999</v>
+        <v>0.1212</v>
       </c>
       <c r="D20">
-        <v>4.6100000000000002E-2</v>
+        <v>6.4699999999999994E-2</v>
       </c>
       <c r="E20" s="7">
-        <v>0.99980000000000002</v>
+        <v>0.99370000000000003</v>
       </c>
       <c r="F20" s="7">
-        <v>0.9577</v>
+        <v>0.96619999999999995</v>
       </c>
       <c r="G20" s="7">
-        <v>0.98580000000000001</v>
+        <v>0.98409999999999997</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" si="0"/>
-        <v>4.2100000000000026E-2</v>
+        <v>2.750000000000008E-2</v>
       </c>
       <c r="I20">
         <f t="shared" si="1"/>
-        <v>0.12199999999999998</v>
+        <v>8.48E-2</v>
       </c>
       <c r="N20" s="6"/>
       <c r="O20" s="5"/>
@@ -1377,624 +1480,702 @@
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
     </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>2.3E-3</v>
+      </c>
+      <c r="C21">
+        <v>0.1244</v>
+      </c>
+      <c r="D21">
+        <v>3.4200000000000001E-2</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.95720000000000005</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0.99009999999999998</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" si="0"/>
+        <v>4.2799999999999949E-2</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>0.1221</v>
+      </c>
+      <c r="N21" s="6"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>6.6E-3</v>
+      </c>
+      <c r="C22">
+        <v>0.15359999999999999</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.95220000000000005</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" si="0"/>
+        <v>4.7799999999999954E-2</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="N22" s="6"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+    </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" t="s">
-        <v>39</v>
-      </c>
-      <c r="I23" t="s">
-        <v>40</v>
-      </c>
-      <c r="J23" t="s">
-        <v>41</v>
-      </c>
-      <c r="K23" t="s">
-        <v>42</v>
-      </c>
-      <c r="L23" t="s">
-        <v>43</v>
-      </c>
-      <c r="M23" t="s">
-        <v>44</v>
-      </c>
+      <c r="A23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="C23">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="D23">
+        <v>2.87E-2</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0.97819999999999996</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0.99239999999999995</v>
+      </c>
+      <c r="H23" s="7">
+        <f t="shared" si="0"/>
+        <v>2.090000000000003E-2</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>5.9000000000000004E-2</v>
+      </c>
+      <c r="N23" s="6"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>12</v>
+      <c r="A24" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>0.98640000000000005</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="C24">
-        <v>0.97209999999999996</v>
+        <v>0.12989999999999999</v>
       </c>
       <c r="D24">
-        <v>0.96879999999999999</v>
-      </c>
-      <c r="E24">
-        <v>0.9516</v>
-      </c>
-      <c r="F24">
-        <v>0.9708</v>
-      </c>
-      <c r="G24">
-        <v>0.85440000000000005</v>
-      </c>
-      <c r="H24">
-        <v>0.997</v>
+        <v>4.6100000000000002E-2</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0.9577</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0.98580000000000001</v>
+      </c>
+      <c r="H24" s="7">
+        <f t="shared" si="0"/>
+        <v>4.2100000000000026E-2</v>
       </c>
       <c r="I24">
-        <v>0.98909999999999998</v>
-      </c>
-      <c r="J24">
-        <v>0.98870000000000002</v>
-      </c>
-      <c r="K24">
-        <v>0.98750000000000004</v>
-      </c>
-      <c r="L24">
-        <v>0.98219999999999996</v>
-      </c>
-      <c r="M24">
-        <v>0.92749999999999999</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>0.12199999999999998</v>
+      </c>
+      <c r="N24" s="6"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="B25">
-        <v>0.97989999999999999</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="C25">
-        <v>0.96509999999999996</v>
-      </c>
-      <c r="D25">
-        <v>0.96140000000000003</v>
-      </c>
-      <c r="E25">
-        <v>0.98870000000000002</v>
-      </c>
-      <c r="F25">
-        <v>0.96530000000000005</v>
-      </c>
-      <c r="G25">
-        <v>0.87429999999999997</v>
-      </c>
-      <c r="H25">
-        <v>0.98629999999999995</v>
+        <v>1.101</v>
+      </c>
+      <c r="D25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0.58960000000000001</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="G25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="7">
+        <f t="shared" si="0"/>
+        <v>1.6000000000000458E-3</v>
       </c>
       <c r="I25">
-        <v>0.98870000000000002</v>
-      </c>
-      <c r="J25">
-        <v>0.98680000000000001</v>
-      </c>
-      <c r="K25">
-        <v>0.9889</v>
-      </c>
-      <c r="L25">
-        <v>0.98380000000000001</v>
-      </c>
-      <c r="M25">
-        <v>0.98150000000000004</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-9.000000000000119E-3</v>
+      </c>
+      <c r="N25" s="6"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="B26">
-        <v>0.97760000000000002</v>
+        <v>0.80620000000000003</v>
       </c>
       <c r="C26">
-        <v>0.95030000000000003</v>
+        <v>0.80130000000000001</v>
       </c>
       <c r="D26">
-        <v>0.94350000000000001</v>
-      </c>
-      <c r="E26">
-        <v>0.98170000000000002</v>
-      </c>
-      <c r="F26">
-        <v>0.96240000000000003</v>
-      </c>
-      <c r="G26">
-        <v>0.88390000000000002</v>
-      </c>
-      <c r="H26">
-        <v>0.9859</v>
+        <v>0.69589999999999996</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0.80420000000000003</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0.71179999999999999</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0.75829999999999997</v>
+      </c>
+      <c r="H26" s="7">
+        <f t="shared" si="0"/>
+        <v>9.2400000000000038E-2</v>
       </c>
       <c r="I26">
-        <v>0.97750000000000004</v>
-      </c>
-      <c r="J26">
-        <v>0.9708</v>
-      </c>
-      <c r="K26">
-        <v>0.98580000000000001</v>
-      </c>
-      <c r="L26">
-        <v>0.97299999999999998</v>
-      </c>
-      <c r="M26">
-        <v>0.9204</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-4.9000000000000155E-3</v>
+      </c>
+      <c r="N26" s="6"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="B27">
-        <v>0.99150000000000005</v>
+        <v>0.59630000000000005</v>
       </c>
       <c r="C27">
-        <v>0.95850000000000002</v>
+        <v>0.79579999999999995</v>
       </c>
       <c r="D27">
-        <v>0.97150000000000003</v>
-      </c>
-      <c r="E27">
-        <v>0.97640000000000005</v>
-      </c>
-      <c r="F27">
-        <v>0.94389999999999996</v>
-      </c>
-      <c r="G27">
-        <v>0.95050000000000001</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
+        <v>0.61350000000000005</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0.80989999999999995</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0.71309999999999996</v>
+      </c>
+      <c r="G27" s="7">
+        <v>0.79149999999999998</v>
+      </c>
+      <c r="H27" s="7">
+        <f t="shared" si="0"/>
+        <v>9.6799999999999997E-2</v>
       </c>
       <c r="I27">
-        <v>0.98089999999999999</v>
-      </c>
-      <c r="J27">
-        <v>0.97850000000000004</v>
-      </c>
-      <c r="K27">
-        <v>0.98360000000000003</v>
-      </c>
-      <c r="L27">
-        <v>0.97840000000000005</v>
-      </c>
-      <c r="M27">
-        <v>0.98399999999999999</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>0.1994999999999999</v>
+      </c>
+      <c r="N27" s="6"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="B28">
-        <v>0.98029999999999995</v>
+        <v>0.25840000000000002</v>
       </c>
       <c r="C28">
-        <v>0.92959999999999998</v>
+        <v>0.78759999999999997</v>
       </c>
       <c r="D28">
-        <v>0.95960000000000001</v>
-      </c>
-      <c r="E28">
-        <v>0.96850000000000003</v>
-      </c>
-      <c r="F28">
-        <v>0.94350000000000001</v>
-      </c>
-      <c r="G28">
-        <v>0.96450000000000002</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
+        <v>0.34510000000000002</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0.74780000000000002</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0.89239999999999997</v>
+      </c>
+      <c r="H28" s="7">
+        <f t="shared" si="0"/>
+        <v>0.10619999999999996</v>
       </c>
       <c r="I28">
-        <v>0.99719999999999998</v>
-      </c>
-      <c r="J28">
-        <v>0.98409999999999997</v>
-      </c>
-      <c r="K28">
-        <v>0.98640000000000005</v>
-      </c>
-      <c r="L28">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="M28">
-        <v>0.9788</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>0.52919999999999989</v>
+      </c>
+      <c r="N28" s="6"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" t="s">
-        <v>47</v>
-      </c>
-      <c r="G29" t="s">
-        <v>47</v>
-      </c>
-      <c r="H29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29" t="s">
-        <v>47</v>
-      </c>
-      <c r="J29" t="s">
-        <v>47</v>
-      </c>
-      <c r="K29" t="s">
-        <v>47</v>
-      </c>
-      <c r="L29" t="s">
-        <v>47</v>
-      </c>
-      <c r="M29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30">
-        <v>0.98619999999999997</v>
-      </c>
-      <c r="C30">
-        <v>0.98550000000000004</v>
-      </c>
-      <c r="D30">
-        <v>0.97340000000000004</v>
-      </c>
-      <c r="E30">
+        <v>61</v>
+      </c>
+      <c r="B29">
+        <v>0.40789999999999998</v>
+      </c>
+      <c r="C29">
+        <v>0.8175</v>
+      </c>
+      <c r="D29">
+        <v>0.51470000000000005</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0.84040000000000004</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0.71830000000000005</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0.82830000000000004</v>
+      </c>
+      <c r="H29" s="7">
+        <f t="shared" si="0"/>
+        <v>0.12209999999999999</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>0.40960000000000002</v>
+      </c>
+      <c r="N29" s="6"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31" t="s">
+        <v>39</v>
+      </c>
+      <c r="I31" t="s">
+        <v>40</v>
+      </c>
+      <c r="J31" t="s">
+        <v>41</v>
+      </c>
+      <c r="K31" t="s">
+        <v>42</v>
+      </c>
+      <c r="L31" t="s">
+        <v>43</v>
+      </c>
+      <c r="M31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32">
+        <v>0.98640000000000005</v>
+      </c>
+      <c r="C32">
+        <v>0.97209999999999996</v>
+      </c>
+      <c r="D32">
+        <v>0.96879999999999999</v>
+      </c>
+      <c r="E32">
+        <v>0.9516</v>
+      </c>
+      <c r="F32">
+        <v>0.9708</v>
+      </c>
+      <c r="G32">
+        <v>0.85440000000000005</v>
+      </c>
+      <c r="H32">
+        <v>0.997</v>
+      </c>
+      <c r="I32">
+        <v>0.98909999999999998</v>
+      </c>
+      <c r="J32">
+        <v>0.98870000000000002</v>
+      </c>
+      <c r="K32">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="L32">
+        <v>0.98219999999999996</v>
+      </c>
+      <c r="M32">
+        <v>0.92749999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33">
+        <v>0.97989999999999999</v>
+      </c>
+      <c r="C33">
+        <v>0.96509999999999996</v>
+      </c>
+      <c r="D33">
+        <v>0.96140000000000003</v>
+      </c>
+      <c r="E33">
+        <v>0.98870000000000002</v>
+      </c>
+      <c r="F33">
+        <v>0.96530000000000005</v>
+      </c>
+      <c r="G33">
+        <v>0.87429999999999997</v>
+      </c>
+      <c r="H33">
+        <v>0.98629999999999995</v>
+      </c>
+      <c r="I33">
+        <v>0.98870000000000002</v>
+      </c>
+      <c r="J33">
+        <v>0.98680000000000001</v>
+      </c>
+      <c r="K33">
+        <v>0.9889</v>
+      </c>
+      <c r="L33">
+        <v>0.98380000000000001</v>
+      </c>
+      <c r="M33">
+        <v>0.98150000000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34">
+        <v>0.97760000000000002</v>
+      </c>
+      <c r="C34">
+        <v>0.95030000000000003</v>
+      </c>
+      <c r="D34">
+        <v>0.94350000000000001</v>
+      </c>
+      <c r="E34">
+        <v>0.98170000000000002</v>
+      </c>
+      <c r="F34">
+        <v>0.96240000000000003</v>
+      </c>
+      <c r="G34">
+        <v>0.88390000000000002</v>
+      </c>
+      <c r="H34">
+        <v>0.9859</v>
+      </c>
+      <c r="I34">
         <v>0.97750000000000004</v>
       </c>
-      <c r="F30">
-        <v>0.97430000000000005</v>
-      </c>
-      <c r="G30">
-        <v>0.96640000000000004</v>
-      </c>
-      <c r="H30">
-        <v>0.9909</v>
-      </c>
-      <c r="I30">
-        <v>0.99550000000000005</v>
-      </c>
-      <c r="J30">
-        <v>0.99060000000000004</v>
-      </c>
-      <c r="K30">
-        <v>0.99109999999999998</v>
-      </c>
-      <c r="L30">
-        <v>0.99729999999999996</v>
-      </c>
-      <c r="M30">
-        <v>0.98660000000000003</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31">
-        <v>0.97909999999999997</v>
-      </c>
-      <c r="C31">
-        <v>0.95709999999999995</v>
-      </c>
-      <c r="D31">
-        <v>0.94750000000000001</v>
-      </c>
-      <c r="E31">
-        <v>0.98240000000000005</v>
-      </c>
-      <c r="F31">
-        <v>0.9365</v>
-      </c>
-      <c r="G31">
-        <v>0.9375</v>
-      </c>
-      <c r="H31">
-        <v>0.9909</v>
-      </c>
-      <c r="I31">
-        <v>0.98660000000000003</v>
-      </c>
-      <c r="J31">
-        <v>0.98819999999999997</v>
-      </c>
-      <c r="K31">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="L31">
-        <v>0.98670000000000002</v>
-      </c>
-      <c r="M31">
-        <v>0.95630000000000004</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" t="s">
-        <v>35</v>
-      </c>
-      <c r="E34" t="s">
-        <v>36</v>
-      </c>
-      <c r="F34" t="s">
-        <v>37</v>
-      </c>
-      <c r="G34" t="s">
-        <v>38</v>
-      </c>
-      <c r="H34" t="s">
-        <v>39</v>
-      </c>
-      <c r="I34" t="s">
-        <v>40</v>
-      </c>
-      <c r="J34" t="s">
-        <v>41</v>
-      </c>
-      <c r="K34" t="s">
-        <v>42</v>
-      </c>
-      <c r="L34" t="s">
-        <v>43</v>
-      </c>
-      <c r="M34" t="s">
-        <v>44</v>
+      <c r="J34">
+        <v>0.9708</v>
+      </c>
+      <c r="K34">
+        <v>0.98580000000000001</v>
+      </c>
+      <c r="L34">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="M34">
+        <v>0.9204</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B35">
-        <v>0.97319999999999995</v>
+        <v>0.99150000000000005</v>
       </c>
       <c r="C35">
-        <v>0.9355</v>
+        <v>0.95850000000000002</v>
       </c>
       <c r="D35">
-        <v>0.96209999999999996</v>
+        <v>0.97150000000000003</v>
       </c>
       <c r="E35">
-        <v>0.94399999999999995</v>
+        <v>0.97640000000000005</v>
       </c>
       <c r="F35">
-        <v>0.9708</v>
+        <v>0.94389999999999996</v>
       </c>
       <c r="G35">
+        <v>0.95050000000000001</v>
+      </c>
+      <c r="H35">
         <v>1</v>
       </c>
-      <c r="H35">
-        <v>0.98799999999999999</v>
-      </c>
       <c r="I35">
-        <v>0.97309999999999997</v>
+        <v>0.98089999999999999</v>
       </c>
       <c r="J35">
-        <v>0.98599999999999999</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="K35">
-        <v>0.97540000000000004</v>
+        <v>0.98360000000000003</v>
       </c>
       <c r="L35">
-        <v>0.99399999999999999</v>
+        <v>0.97840000000000005</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>0.98399999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B36">
-        <v>0.98560000000000003</v>
+        <v>0.98029999999999995</v>
       </c>
       <c r="C36">
-        <v>0.94740000000000002</v>
+        <v>0.92959999999999998</v>
       </c>
       <c r="D36">
-        <v>0.97209999999999996</v>
+        <v>0.95960000000000001</v>
       </c>
       <c r="E36">
-        <v>0.94340000000000002</v>
+        <v>0.96850000000000003</v>
       </c>
       <c r="F36">
-        <v>0.95509999999999995</v>
+        <v>0.94350000000000001</v>
       </c>
       <c r="G36">
+        <v>0.96450000000000002</v>
+      </c>
+      <c r="H36">
         <v>1</v>
       </c>
-      <c r="H36">
-        <v>0.99180000000000001</v>
-      </c>
       <c r="I36">
-        <v>0.98309999999999997</v>
+        <v>0.99719999999999998</v>
       </c>
       <c r="J36">
-        <v>0.99470000000000003</v>
+        <v>0.98409999999999997</v>
       </c>
       <c r="K36">
-        <v>0.97529999999999994</v>
+        <v>0.98640000000000005</v>
       </c>
       <c r="L36">
-        <v>0.98380000000000001</v>
+        <v>0.98899999999999999</v>
       </c>
       <c r="M36">
-        <v>0.99370000000000003</v>
+        <v>0.9788</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37">
-        <v>0.97489999999999999</v>
-      </c>
-      <c r="C37">
-        <v>0.90529999999999999</v>
-      </c>
-      <c r="D37">
-        <v>0.97709999999999997</v>
-      </c>
-      <c r="E37">
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="F37">
-        <v>0.9446</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>0.9859</v>
-      </c>
-      <c r="I37">
-        <v>0.94820000000000004</v>
-      </c>
-      <c r="J37">
-        <v>0.9839</v>
-      </c>
-      <c r="K37">
-        <v>0.95599999999999996</v>
-      </c>
-      <c r="L37">
-        <v>0.98089999999999999</v>
-      </c>
-      <c r="M37">
-        <v>0.98929999999999996</v>
+        <v>19</v>
+      </c>
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" t="s">
+        <v>47</v>
+      </c>
+      <c r="G37" t="s">
+        <v>47</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>47</v>
+      </c>
+      <c r="J37" t="s">
+        <v>47</v>
+      </c>
+      <c r="K37" t="s">
+        <v>47</v>
+      </c>
+      <c r="L37" t="s">
+        <v>47</v>
+      </c>
+      <c r="M37" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>20</v>
+      <c r="A38" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="B38">
-        <v>0.98040000000000005</v>
+        <v>0.98619999999999997</v>
       </c>
       <c r="C38">
-        <v>0.9556</v>
+        <v>0.98550000000000004</v>
       </c>
       <c r="D38">
-        <v>0.95420000000000005</v>
+        <v>0.97340000000000004</v>
       </c>
       <c r="E38">
-        <v>0.96220000000000006</v>
+        <v>0.97750000000000004</v>
       </c>
       <c r="F38">
-        <v>0.97629999999999995</v>
+        <v>0.97430000000000005</v>
       </c>
       <c r="G38">
-        <v>0.96970000000000001</v>
+        <v>0.96640000000000004</v>
       </c>
       <c r="H38">
-        <v>0.98870000000000002</v>
+        <v>0.9909</v>
       </c>
       <c r="I38">
-        <v>0.97819999999999996</v>
+        <v>0.99550000000000005</v>
       </c>
       <c r="J38">
-        <v>0.97850000000000004</v>
+        <v>0.99060000000000004</v>
       </c>
       <c r="K38">
-        <v>0.98899999999999999</v>
+        <v>0.99109999999999998</v>
       </c>
       <c r="L38">
-        <v>0.98640000000000005</v>
+        <v>0.99729999999999996</v>
       </c>
       <c r="M38">
-        <v>0.98399999999999999</v>
+        <v>0.98660000000000003</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>17</v>
+      <c r="A39" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="B39">
-        <v>0.97209999999999996</v>
+        <v>0.97909999999999997</v>
       </c>
       <c r="C39">
-        <v>0.93789999999999996</v>
+        <v>0.95709999999999995</v>
       </c>
       <c r="D39">
-        <v>0.96689999999999998</v>
+        <v>0.94750000000000001</v>
       </c>
       <c r="E39">
-        <v>0.98260000000000003</v>
+        <v>0.98240000000000005</v>
       </c>
       <c r="F39">
-        <v>0.92610000000000003</v>
+        <v>0.9365</v>
       </c>
       <c r="G39">
-        <v>0.95960000000000001</v>
+        <v>0.9375</v>
       </c>
       <c r="H39">
-        <v>0.99150000000000005</v>
+        <v>0.9909</v>
       </c>
       <c r="I39">
-        <v>0.98089999999999999</v>
+        <v>0.98660000000000003</v>
       </c>
       <c r="J39">
-        <v>0.99729999999999996</v>
+        <v>0.98819999999999997</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="L39">
-        <v>0.98089999999999999</v>
+        <v>0.98670000000000002</v>
       </c>
       <c r="M39">
-        <v>0.98929999999999996</v>
+        <v>0.95630000000000004</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
         <v>47</v>
@@ -2034,328 +2215,369 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>21</v>
+      <c r="A41" t="s">
+        <v>57</v>
       </c>
       <c r="B41">
-        <v>0.99529999999999996</v>
+        <v>0.89859999999999995</v>
       </c>
       <c r="C41">
-        <v>0.96009999999999995</v>
+        <v>0.72360000000000002</v>
       </c>
       <c r="D41">
-        <v>0.98770000000000002</v>
+        <v>0.83389999999999997</v>
       </c>
       <c r="E41">
-        <v>0.96660000000000001</v>
+        <v>0.56469999999999998</v>
       </c>
       <c r="F41">
-        <v>0.9718</v>
+        <v>0.73719999999999997</v>
       </c>
       <c r="G41">
-        <v>0.99139999999999995</v>
+        <v>0.6159</v>
       </c>
       <c r="H41">
-        <v>0.99770000000000003</v>
+        <v>0.92759999999999998</v>
       </c>
       <c r="I41">
-        <v>0.9889</v>
+        <v>0.82120000000000004</v>
       </c>
       <c r="J41">
-        <v>0.99760000000000004</v>
+        <v>0.85760000000000003</v>
       </c>
       <c r="K41">
-        <v>0.98529999999999995</v>
+        <v>0.58330000000000004</v>
       </c>
       <c r="L41">
-        <v>0.98680000000000001</v>
+        <v>0.82079999999999997</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>0.62460000000000004</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B42" s="3">
-        <v>0.98140000000000005</v>
-      </c>
-      <c r="C42" s="3">
-        <v>0.94369999999999998</v>
-      </c>
-      <c r="D42" s="3">
-        <v>0.97299999999999998</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0.93310000000000004</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0.94620000000000004</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0.9698</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0.99309999999999998</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0.98440000000000005</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0.99050000000000005</v>
-      </c>
-      <c r="K42" s="3">
-        <v>0.97650000000000003</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0.9788</v>
-      </c>
-      <c r="M42" s="3">
-        <v>0.99099999999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="A42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42">
+        <v>0.71640000000000004</v>
+      </c>
+      <c r="C42">
+        <v>0.61680000000000001</v>
+      </c>
+      <c r="D42">
+        <v>0.74860000000000004</v>
+      </c>
+      <c r="E42">
+        <v>0.73119999999999996</v>
+      </c>
+      <c r="F42">
+        <v>0.7661</v>
+      </c>
+      <c r="G42">
+        <v>0.73950000000000005</v>
+      </c>
+      <c r="H42">
+        <v>0.81410000000000005</v>
+      </c>
+      <c r="I42">
+        <v>0.69810000000000005</v>
+      </c>
+      <c r="J42">
+        <v>0.87209999999999999</v>
+      </c>
+      <c r="K42">
+        <v>0.77190000000000003</v>
+      </c>
+      <c r="L42">
+        <v>0.76970000000000005</v>
+      </c>
+      <c r="M42">
+        <v>0.85709999999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43">
+        <v>0.94440000000000002</v>
+      </c>
+      <c r="C43">
+        <v>0.65229999999999999</v>
+      </c>
+      <c r="D43">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="E43">
+        <v>0.8478</v>
+      </c>
+      <c r="F43">
+        <v>0.60309999999999997</v>
+      </c>
+      <c r="G43">
+        <v>0.78510000000000002</v>
+      </c>
+      <c r="H43">
+        <v>0.98640000000000005</v>
+      </c>
+      <c r="I43">
+        <v>0.79859999999999998</v>
+      </c>
+      <c r="J43">
+        <v>0.97689999999999999</v>
+      </c>
+      <c r="K43">
+        <v>0.96709999999999996</v>
+      </c>
+      <c r="L43">
+        <v>0.75</v>
+      </c>
+      <c r="M43">
+        <v>0.93779999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44">
+        <v>0.71030000000000004</v>
+      </c>
+      <c r="C44">
+        <v>0.92390000000000005</v>
+      </c>
+      <c r="D44">
+        <v>0.71360000000000001</v>
+      </c>
+      <c r="E44">
+        <v>0.69520000000000004</v>
+      </c>
+      <c r="F44">
+        <v>0.68879999999999997</v>
+      </c>
+      <c r="G44">
+        <v>0.70930000000000004</v>
+      </c>
+      <c r="H44">
+        <v>0.79520000000000002</v>
+      </c>
+      <c r="I44">
+        <v>0.97460000000000002</v>
+      </c>
+      <c r="J44">
+        <v>0.87050000000000005</v>
+      </c>
+      <c r="K44">
+        <v>0.80630000000000002</v>
+      </c>
+      <c r="L44">
+        <v>0.78080000000000005</v>
+      </c>
+      <c r="M44">
+        <v>0.82399999999999995</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
         <v>33</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>34</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D46" t="s">
         <v>35</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E46" t="s">
         <v>36</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F46" t="s">
         <v>37</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G46" t="s">
         <v>38</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H46" t="s">
         <v>39</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I46" t="s">
         <v>40</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J46" t="s">
         <v>41</v>
       </c>
-      <c r="K45" t="s">
+      <c r="K46" t="s">
         <v>42</v>
       </c>
-      <c r="L45" t="s">
+      <c r="L46" t="s">
         <v>43</v>
       </c>
-      <c r="M45" t="s">
+      <c r="M46" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46">
-        <v>0.97970000000000002</v>
-      </c>
-      <c r="C46">
-        <v>0.95340000000000003</v>
-      </c>
-      <c r="D46">
-        <v>0.96540000000000004</v>
-      </c>
-      <c r="E46">
-        <v>0.94779999999999998</v>
-      </c>
-      <c r="F46">
-        <v>0.9708</v>
-      </c>
-      <c r="G46">
-        <v>0.92149999999999999</v>
-      </c>
-      <c r="H46">
-        <v>0.99250000000000005</v>
-      </c>
-      <c r="I46">
-        <v>0.98099999999999998</v>
-      </c>
-      <c r="J46">
-        <v>0.98729999999999996</v>
-      </c>
-      <c r="K46">
-        <v>0.98140000000000005</v>
-      </c>
-      <c r="L46">
-        <v>0.98809999999999998</v>
-      </c>
-      <c r="M46">
-        <v>0.96240000000000003</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B47">
-        <v>0.98280000000000001</v>
+        <v>0.97319999999999995</v>
       </c>
       <c r="C47">
-        <v>0.95620000000000005</v>
+        <v>0.9355</v>
       </c>
       <c r="D47">
-        <v>0.96679999999999999</v>
+        <v>0.96209999999999996</v>
       </c>
       <c r="E47">
-        <v>0.96550000000000002</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="F47">
-        <v>0.96020000000000005</v>
+        <v>0.9708</v>
       </c>
       <c r="G47">
-        <v>0.93289999999999995</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>0.98899999999999999</v>
+        <v>0.98799999999999999</v>
       </c>
       <c r="I47">
-        <v>0.9859</v>
+        <v>0.97309999999999997</v>
       </c>
       <c r="J47">
-        <v>0.99070000000000003</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="K47">
-        <v>0.98209999999999997</v>
+        <v>0.97540000000000004</v>
       </c>
       <c r="L47">
-        <v>0.98380000000000001</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="M47">
-        <v>0.98760000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B48">
-        <v>0.97619999999999996</v>
+        <v>0.98560000000000003</v>
       </c>
       <c r="C48">
-        <v>0.92730000000000001</v>
+        <v>0.94740000000000002</v>
       </c>
       <c r="D48">
-        <v>0.96</v>
+        <v>0.97209999999999996</v>
       </c>
       <c r="E48">
-        <v>0.95830000000000004</v>
+        <v>0.94340000000000002</v>
       </c>
       <c r="F48">
-        <v>0.95340000000000003</v>
+        <v>0.95509999999999995</v>
       </c>
       <c r="G48">
-        <v>0.93840000000000001</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>0.9859</v>
+        <v>0.99180000000000001</v>
       </c>
       <c r="I48">
-        <v>0.9627</v>
+        <v>0.98309999999999997</v>
       </c>
       <c r="J48">
-        <v>0.97729999999999995</v>
+        <v>0.99470000000000003</v>
       </c>
       <c r="K48">
-        <v>0.97070000000000001</v>
+        <v>0.97529999999999994</v>
       </c>
       <c r="L48">
-        <v>0.97689999999999999</v>
+        <v>0.98380000000000001</v>
       </c>
       <c r="M48">
-        <v>0.9536</v>
+        <v>0.99370000000000003</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B49">
-        <v>0.98599999999999999</v>
+        <v>0.97489999999999999</v>
       </c>
       <c r="C49">
-        <v>0.95699999999999996</v>
+        <v>0.90529999999999999</v>
       </c>
       <c r="D49">
-        <v>0.96279999999999999</v>
+        <v>0.97709999999999997</v>
       </c>
       <c r="E49">
-        <v>0.96930000000000005</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="F49">
-        <v>0.95979999999999999</v>
+        <v>0.9446</v>
       </c>
       <c r="G49">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>0.99429999999999996</v>
+        <v>0.9859</v>
       </c>
       <c r="I49">
-        <v>0.97950000000000004</v>
+        <v>0.94820000000000004</v>
       </c>
       <c r="J49">
-        <v>0.97850000000000004</v>
+        <v>0.9839</v>
       </c>
       <c r="K49">
-        <v>0.98629999999999995</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="L49">
-        <v>0.98240000000000005</v>
+        <v>0.98089999999999999</v>
       </c>
       <c r="M49">
-        <v>0.98399999999999999</v>
+        <v>0.98929999999999996</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B50">
-        <v>0.97619999999999996</v>
+        <v>0.98040000000000005</v>
       </c>
       <c r="C50">
-        <v>0.93369999999999997</v>
+        <v>0.9556</v>
       </c>
       <c r="D50">
-        <v>0.96319999999999995</v>
+        <v>0.95420000000000005</v>
       </c>
       <c r="E50">
-        <v>0.97550000000000003</v>
+        <v>0.96220000000000006</v>
       </c>
       <c r="F50">
-        <v>0.93479999999999996</v>
+        <v>0.97629999999999995</v>
       </c>
       <c r="G50">
-        <v>0.96199999999999997</v>
+        <v>0.96970000000000001</v>
       </c>
       <c r="H50">
-        <v>0.99570000000000003</v>
+        <v>0.98870000000000002</v>
       </c>
       <c r="I50">
+        <v>0.97819999999999996</v>
+      </c>
+      <c r="J50">
+        <v>0.97850000000000004</v>
+      </c>
+      <c r="K50">
         <v>0.98899999999999999</v>
       </c>
-      <c r="J50">
-        <v>0.99070000000000003</v>
-      </c>
-      <c r="K50">
-        <v>0.99319999999999997</v>
-      </c>
       <c r="L50">
-        <v>0.98499999999999999</v>
+        <v>0.98640000000000005</v>
       </c>
       <c r="M50">
         <v>0.98399999999999999</v>
@@ -2363,125 +2585,945 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51">
+        <v>0.97209999999999996</v>
+      </c>
+      <c r="C51">
+        <v>0.93789999999999996</v>
+      </c>
+      <c r="D51">
+        <v>0.96689999999999998</v>
+      </c>
+      <c r="E51">
+        <v>0.98260000000000003</v>
+      </c>
+      <c r="F51">
+        <v>0.92610000000000003</v>
+      </c>
+      <c r="G51">
+        <v>0.95960000000000001</v>
+      </c>
+      <c r="H51">
+        <v>0.99150000000000005</v>
+      </c>
+      <c r="I51">
+        <v>0.98089999999999999</v>
+      </c>
+      <c r="J51">
+        <v>0.99729999999999996</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>0.98089999999999999</v>
+      </c>
+      <c r="M51">
+        <v>0.98929999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>19</v>
       </c>
-      <c r="B51" t="s">
-        <v>47</v>
-      </c>
-      <c r="C51" t="s">
-        <v>47</v>
-      </c>
-      <c r="D51" t="s">
-        <v>47</v>
-      </c>
-      <c r="E51" t="s">
-        <v>47</v>
-      </c>
-      <c r="F51" t="s">
-        <v>47</v>
-      </c>
-      <c r="G51" t="s">
-        <v>47</v>
-      </c>
-      <c r="H51" t="s">
-        <v>47</v>
-      </c>
-      <c r="I51" t="s">
-        <v>47</v>
-      </c>
-      <c r="J51" t="s">
-        <v>47</v>
-      </c>
-      <c r="K51" t="s">
-        <v>47</v>
-      </c>
-      <c r="L51" t="s">
-        <v>47</v>
-      </c>
-      <c r="M51" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B52">
-        <v>0.99070000000000003</v>
-      </c>
-      <c r="C52">
-        <v>0.97270000000000001</v>
-      </c>
-      <c r="D52">
-        <v>0.98050000000000004</v>
-      </c>
-      <c r="E52">
-        <v>0.97199999999999998</v>
-      </c>
-      <c r="F52">
-        <v>0.97299999999999998</v>
-      </c>
-      <c r="G52">
-        <v>0.97870000000000001</v>
-      </c>
-      <c r="H52">
-        <v>0.99429999999999996</v>
-      </c>
-      <c r="I52">
-        <v>0.99219999999999997</v>
-      </c>
-      <c r="J52">
-        <v>0.99409999999999998</v>
-      </c>
-      <c r="K52">
-        <v>0.98819999999999997</v>
-      </c>
-      <c r="L52">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="M52">
-        <v>0.99329999999999996</v>
+      <c r="B52" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" t="s">
+        <v>47</v>
+      </c>
+      <c r="E52" t="s">
+        <v>47</v>
+      </c>
+      <c r="F52" t="s">
+        <v>47</v>
+      </c>
+      <c r="G52" t="s">
+        <v>47</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>47</v>
+      </c>
+      <c r="J52" t="s">
+        <v>47</v>
+      </c>
+      <c r="K52" t="s">
+        <v>47</v>
+      </c>
+      <c r="L52" t="s">
+        <v>47</v>
+      </c>
+      <c r="M52" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53">
+        <v>0.99529999999999996</v>
+      </c>
+      <c r="C53">
+        <v>0.96009999999999995</v>
+      </c>
+      <c r="D53">
+        <v>0.98770000000000002</v>
+      </c>
+      <c r="E53">
+        <v>0.96660000000000001</v>
+      </c>
+      <c r="F53">
+        <v>0.9718</v>
+      </c>
+      <c r="G53">
+        <v>0.99139999999999995</v>
+      </c>
+      <c r="H53">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="I53">
+        <v>0.9889</v>
+      </c>
+      <c r="J53">
+        <v>0.99760000000000004</v>
+      </c>
+      <c r="K53">
+        <v>0.98529999999999995</v>
+      </c>
+      <c r="L53">
+        <v>0.98680000000000001</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B53">
+      <c r="B54" s="3">
+        <v>0.98140000000000005</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0.94369999999999998</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0.93310000000000004</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0.94620000000000004</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0.9698</v>
+      </c>
+      <c r="H54" s="3">
+        <v>0.99309999999999998</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0.98440000000000005</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0.99050000000000005</v>
+      </c>
+      <c r="K54" s="3">
+        <v>0.97650000000000003</v>
+      </c>
+      <c r="L54" s="3">
+        <v>0.9788</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0.99099999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E55" t="s">
+        <v>47</v>
+      </c>
+      <c r="F55" t="s">
+        <v>47</v>
+      </c>
+      <c r="G55" t="s">
+        <v>47</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>47</v>
+      </c>
+      <c r="J55" t="s">
+        <v>47</v>
+      </c>
+      <c r="K55" t="s">
+        <v>47</v>
+      </c>
+      <c r="L55" t="s">
+        <v>47</v>
+      </c>
+      <c r="M55" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56">
+        <v>0.76280000000000003</v>
+      </c>
+      <c r="C56">
+        <v>0.59619999999999995</v>
+      </c>
+      <c r="D56">
+        <v>0.62749999999999995</v>
+      </c>
+      <c r="E56">
+        <v>0.93589999999999995</v>
+      </c>
+      <c r="F56">
+        <v>0.5897</v>
+      </c>
+      <c r="G56">
+        <v>0.83620000000000005</v>
+      </c>
+      <c r="H56">
+        <v>0.79179999999999995</v>
+      </c>
+      <c r="I56">
+        <v>0.72609999999999997</v>
+      </c>
+      <c r="J56">
+        <v>0.628</v>
+      </c>
+      <c r="K56">
+        <v>0.94710000000000005</v>
+      </c>
+      <c r="L56">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="M56">
+        <v>0.87329999999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="C57">
+        <v>0.72529999999999994</v>
+      </c>
+      <c r="D57">
+        <v>0.59550000000000003</v>
+      </c>
+      <c r="E57">
+        <v>0.84860000000000002</v>
+      </c>
+      <c r="F57">
+        <v>0.55510000000000004</v>
+      </c>
+      <c r="G57">
+        <v>0.73609999999999998</v>
+      </c>
+      <c r="H57">
+        <v>0.9163</v>
+      </c>
+      <c r="I57">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="J57">
+        <v>0.66080000000000005</v>
+      </c>
+      <c r="K57">
+        <v>0.89039999999999997</v>
+      </c>
+      <c r="L57">
+        <v>0.67820000000000003</v>
+      </c>
+      <c r="M57">
+        <v>0.78949999999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58">
+        <v>0.72960000000000003</v>
+      </c>
+      <c r="C58">
+        <v>0.84550000000000003</v>
+      </c>
+      <c r="D58">
+        <v>0.54090000000000005</v>
+      </c>
+      <c r="E58">
+        <v>0.71560000000000001</v>
+      </c>
+      <c r="F58">
+        <v>0.81779999999999997</v>
+      </c>
+      <c r="G58">
+        <v>0.82869999999999999</v>
+      </c>
+      <c r="H58">
+        <v>0.90790000000000004</v>
+      </c>
+      <c r="I58">
+        <v>0.95279999999999998</v>
+      </c>
+      <c r="J58">
+        <v>0.74450000000000005</v>
+      </c>
+      <c r="K58">
+        <v>0.90349999999999997</v>
+      </c>
+      <c r="L58">
+        <v>0.92079999999999995</v>
+      </c>
+      <c r="M58">
+        <v>0.9254</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59">
+        <v>0.8841</v>
+      </c>
+      <c r="C59">
+        <v>0.36480000000000001</v>
+      </c>
+      <c r="D59">
+        <v>0.66820000000000002</v>
+      </c>
+      <c r="E59">
+        <v>0.85780000000000001</v>
+      </c>
+      <c r="F59">
+        <v>0.70340000000000003</v>
+      </c>
+      <c r="G59">
+        <v>0.84719999999999995</v>
+      </c>
+      <c r="H59">
+        <v>0.97489999999999999</v>
+      </c>
+      <c r="I59">
+        <v>0.49359999999999998</v>
+      </c>
+      <c r="J59">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="K59">
+        <v>0.89470000000000005</v>
+      </c>
+      <c r="L59">
+        <v>0.84650000000000003</v>
+      </c>
+      <c r="M59">
+        <v>0.90349999999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B61" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" t="s">
+        <v>34</v>
+      </c>
+      <c r="D61" t="s">
+        <v>35</v>
+      </c>
+      <c r="E61" t="s">
+        <v>36</v>
+      </c>
+      <c r="F61" t="s">
+        <v>37</v>
+      </c>
+      <c r="G61" t="s">
+        <v>38</v>
+      </c>
+      <c r="H61" t="s">
+        <v>39</v>
+      </c>
+      <c r="I61" t="s">
+        <v>40</v>
+      </c>
+      <c r="J61" t="s">
+        <v>41</v>
+      </c>
+      <c r="K61" t="s">
+        <v>42</v>
+      </c>
+      <c r="L61" t="s">
+        <v>43</v>
+      </c>
+      <c r="M61" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62">
+        <v>0.97970000000000002</v>
+      </c>
+      <c r="C62">
+        <v>0.95340000000000003</v>
+      </c>
+      <c r="D62">
+        <v>0.96540000000000004</v>
+      </c>
+      <c r="E62">
+        <v>0.94779999999999998</v>
+      </c>
+      <c r="F62">
+        <v>0.9708</v>
+      </c>
+      <c r="G62">
+        <v>0.92149999999999999</v>
+      </c>
+      <c r="H62">
+        <v>0.99250000000000005</v>
+      </c>
+      <c r="I62">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="J62">
+        <v>0.98729999999999996</v>
+      </c>
+      <c r="K62">
+        <v>0.98140000000000005</v>
+      </c>
+      <c r="L62">
+        <v>0.98809999999999998</v>
+      </c>
+      <c r="M62">
+        <v>0.96240000000000003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63">
+        <v>0.98280000000000001</v>
+      </c>
+      <c r="C63">
+        <v>0.95620000000000005</v>
+      </c>
+      <c r="D63">
+        <v>0.96679999999999999</v>
+      </c>
+      <c r="E63">
+        <v>0.96550000000000002</v>
+      </c>
+      <c r="F63">
+        <v>0.96020000000000005</v>
+      </c>
+      <c r="G63">
+        <v>0.93289999999999995</v>
+      </c>
+      <c r="H63">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="I63">
+        <v>0.9859</v>
+      </c>
+      <c r="J63">
+        <v>0.99070000000000003</v>
+      </c>
+      <c r="K63">
+        <v>0.98209999999999997</v>
+      </c>
+      <c r="L63">
+        <v>0.98380000000000001</v>
+      </c>
+      <c r="M63">
+        <v>0.98760000000000003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64">
+        <v>0.97619999999999996</v>
+      </c>
+      <c r="C64">
+        <v>0.92730000000000001</v>
+      </c>
+      <c r="D64">
+        <v>0.96</v>
+      </c>
+      <c r="E64">
+        <v>0.95830000000000004</v>
+      </c>
+      <c r="F64">
+        <v>0.95340000000000003</v>
+      </c>
+      <c r="G64">
+        <v>0.93840000000000001</v>
+      </c>
+      <c r="H64">
+        <v>0.9859</v>
+      </c>
+      <c r="I64">
+        <v>0.9627</v>
+      </c>
+      <c r="J64">
+        <v>0.97729999999999995</v>
+      </c>
+      <c r="K64">
+        <v>0.97070000000000001</v>
+      </c>
+      <c r="L64">
+        <v>0.97689999999999999</v>
+      </c>
+      <c r="M64">
+        <v>0.9536</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="C65">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="D65">
+        <v>0.96279999999999999</v>
+      </c>
+      <c r="E65">
+        <v>0.96930000000000005</v>
+      </c>
+      <c r="F65">
+        <v>0.95979999999999999</v>
+      </c>
+      <c r="G65">
+        <v>0.96</v>
+      </c>
+      <c r="H65">
+        <v>0.99429999999999996</v>
+      </c>
+      <c r="I65">
+        <v>0.97950000000000004</v>
+      </c>
+      <c r="J65">
+        <v>0.97850000000000004</v>
+      </c>
+      <c r="K65">
+        <v>0.98629999999999995</v>
+      </c>
+      <c r="L65">
+        <v>0.98240000000000005</v>
+      </c>
+      <c r="M65">
+        <v>0.98399999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66">
+        <v>0.97619999999999996</v>
+      </c>
+      <c r="C66">
+        <v>0.93369999999999997</v>
+      </c>
+      <c r="D66">
+        <v>0.96319999999999995</v>
+      </c>
+      <c r="E66">
+        <v>0.97550000000000003</v>
+      </c>
+      <c r="F66">
+        <v>0.93479999999999996</v>
+      </c>
+      <c r="G66">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="H66">
+        <v>0.99570000000000003</v>
+      </c>
+      <c r="I66">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="J66">
+        <v>0.99070000000000003</v>
+      </c>
+      <c r="K66">
+        <v>0.99319999999999997</v>
+      </c>
+      <c r="L66">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="M66">
+        <v>0.98399999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" t="s">
+        <v>47</v>
+      </c>
+      <c r="C67" t="s">
+        <v>47</v>
+      </c>
+      <c r="D67" t="s">
+        <v>47</v>
+      </c>
+      <c r="E67" t="s">
+        <v>47</v>
+      </c>
+      <c r="F67" t="s">
+        <v>47</v>
+      </c>
+      <c r="G67" t="s">
+        <v>47</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>47</v>
+      </c>
+      <c r="J67" t="s">
+        <v>47</v>
+      </c>
+      <c r="K67" t="s">
+        <v>47</v>
+      </c>
+      <c r="L67" t="s">
+        <v>47</v>
+      </c>
+      <c r="M67" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B68">
+        <v>0.99070000000000003</v>
+      </c>
+      <c r="C68">
+        <v>0.97270000000000001</v>
+      </c>
+      <c r="D68">
+        <v>0.98050000000000004</v>
+      </c>
+      <c r="E68">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="F68">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="G68">
+        <v>0.97870000000000001</v>
+      </c>
+      <c r="H68">
+        <v>0.99429999999999996</v>
+      </c>
+      <c r="I68">
+        <v>0.99219999999999997</v>
+      </c>
+      <c r="J68">
+        <v>0.99409999999999998</v>
+      </c>
+      <c r="K68">
+        <v>0.98819999999999997</v>
+      </c>
+      <c r="L68">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="M68">
+        <v>0.99329999999999996</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B69">
         <v>0.98029999999999995</v>
       </c>
-      <c r="C53">
+      <c r="C69">
         <v>0.95040000000000002</v>
       </c>
-      <c r="D53">
+      <c r="D69">
         <v>0.96009999999999995</v>
       </c>
-      <c r="E53">
+      <c r="E69">
         <v>0.95709999999999995</v>
       </c>
-      <c r="F53">
+      <c r="F69">
         <v>0.94130000000000003</v>
       </c>
-      <c r="G53">
+      <c r="G69">
         <v>0.95340000000000003</v>
       </c>
-      <c r="H53">
+      <c r="H69">
         <v>0.99199999999999999</v>
       </c>
-      <c r="I53">
+      <c r="I69">
         <v>0.98550000000000004</v>
       </c>
-      <c r="J53">
+      <c r="J69">
         <v>0.98929999999999996</v>
       </c>
-      <c r="K53">
+      <c r="K69">
         <v>0.98519999999999996</v>
       </c>
-      <c r="L53">
+      <c r="L69">
         <v>0.98270000000000002</v>
       </c>
-      <c r="M53">
+      <c r="M69">
         <v>0.97330000000000005</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>55</v>
+      </c>
+      <c r="B70" t="s">
+        <v>47</v>
+      </c>
+      <c r="C70" t="s">
+        <v>47</v>
+      </c>
+      <c r="D70" t="s">
+        <v>47</v>
+      </c>
+      <c r="E70" t="s">
+        <v>47</v>
+      </c>
+      <c r="F70" t="s">
+        <v>47</v>
+      </c>
+      <c r="G70" t="s">
+        <v>47</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>47</v>
+      </c>
+      <c r="J70" t="s">
+        <v>47</v>
+      </c>
+      <c r="K70" t="s">
+        <v>47</v>
+      </c>
+      <c r="L70" t="s">
+        <v>47</v>
+      </c>
+      <c r="M70" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>57</v>
+      </c>
+      <c r="B71">
+        <v>0.82520000000000004</v>
+      </c>
+      <c r="C71">
+        <v>0.65380000000000005</v>
+      </c>
+      <c r="D71">
+        <v>0.71609999999999996</v>
+      </c>
+      <c r="E71">
+        <v>0.70440000000000003</v>
+      </c>
+      <c r="F71">
+        <v>0.65529999999999999</v>
+      </c>
+      <c r="G71">
+        <v>0.70930000000000004</v>
+      </c>
+      <c r="H71">
+        <v>0.85429999999999995</v>
+      </c>
+      <c r="I71">
+        <v>0.77070000000000005</v>
+      </c>
+      <c r="J71">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="K71">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="L71">
+        <v>0.73580000000000001</v>
+      </c>
+      <c r="M71">
+        <v>0.72829999999999995</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>59</v>
+      </c>
+      <c r="B72">
+        <v>0.76649999999999996</v>
+      </c>
+      <c r="C72">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="D72">
+        <v>0.6633</v>
+      </c>
+      <c r="E72">
+        <v>0.78559999999999997</v>
+      </c>
+      <c r="F72">
+        <v>0.64370000000000005</v>
+      </c>
+      <c r="G72">
+        <v>0.73780000000000001</v>
+      </c>
+      <c r="H72">
+        <v>0.86219999999999997</v>
+      </c>
+      <c r="I72">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="J72">
+        <v>0.75190000000000001</v>
+      </c>
+      <c r="K72">
+        <v>0.82689999999999997</v>
+      </c>
+      <c r="L72">
+        <v>0.72109999999999996</v>
+      </c>
+      <c r="M72">
+        <v>0.82189999999999996</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>60</v>
+      </c>
+      <c r="B73">
+        <v>0.82320000000000004</v>
+      </c>
+      <c r="C73">
+        <v>0.73640000000000005</v>
+      </c>
+      <c r="D73">
+        <v>0.65749999999999997</v>
+      </c>
+      <c r="E73">
+        <v>0.77610000000000001</v>
+      </c>
+      <c r="F73">
+        <v>0.69420000000000004</v>
+      </c>
+      <c r="G73">
+        <v>0.80630000000000002</v>
+      </c>
+      <c r="H73">
+        <v>0.94550000000000001</v>
+      </c>
+      <c r="I73">
+        <v>0.86890000000000001</v>
+      </c>
+      <c r="J73">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="K73">
+        <v>0.93420000000000003</v>
+      </c>
+      <c r="L73">
+        <v>0.82669999999999999</v>
+      </c>
+      <c r="M73">
+        <v>0.93159999999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>61</v>
+      </c>
+      <c r="B74">
+        <v>0.78779999999999994</v>
+      </c>
+      <c r="C74">
+        <v>0.52310000000000001</v>
+      </c>
+      <c r="D74">
+        <v>0.69010000000000005</v>
+      </c>
+      <c r="E74">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="F74">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="G74">
+        <v>0.7722</v>
+      </c>
+      <c r="H74">
+        <v>0.87590000000000001</v>
+      </c>
+      <c r="I74">
+        <v>0.65529999999999999</v>
+      </c>
+      <c r="J74">
+        <v>0.86470000000000002</v>
+      </c>
+      <c r="K74">
+        <v>0.84819999999999995</v>
+      </c>
+      <c r="L74">
+        <v>0.81240000000000001</v>
+      </c>
+      <c r="M74">
+        <v>0.8619</v>
       </c>
     </row>
   </sheetData>
